--- a/Global_M2/Datasums/Top33_DataComp.xlsx
+++ b/Global_M2/Datasums/Top33_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>44958</v>
+        <v>45200</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>29830</v>
+        <v>30042</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>29768</v>
+        <v>29983</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>29768</v>
+        <v>29983</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>29830</v>
+        <v>30042</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>29768</v>
+        <v>30011</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>44958</v>
+        <v>45200</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>29830</v>
+        <v>30042</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>29830</v>
+        <v>30042</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>29738</v>
+        <v>29952</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>44927</v>
+        <v>45139</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>29830</v>
+        <v>30042</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>29768</v>
+        <v>29983</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>29768</v>
+        <v>29983</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>29830</v>
+        <v>30042</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -860,22 +860,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D10" t="n">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30592</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -911,16 +911,16 @@
         <v>500</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>29738</v>
+        <v>29983</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>44927</v>
+        <v>45170</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>29830</v>
+        <v>30042</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -950,22 +950,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="D12" t="n">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>33939</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>34578</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="D13" t="n">
         <v>500</v>
@@ -1004,13 +1004,13 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>29830</v>
+        <v>30042</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="D14" t="n">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>32325</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>33239</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D15" t="n">
         <v>500</v>
@@ -1094,13 +1094,13 @@
         <v>33543</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>44986</v>
+        <v>45170</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>29801</v>
+        <v>30011</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="D16" t="n">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>31382</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D17" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>33970</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>33298</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1226,16 +1226,16 @@
         <v>500</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>29768</v>
+        <v>29983</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>29830</v>
+        <v>30042</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1268,19 +1268,19 @@
         <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>29768</v>
+        <v>29983</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>33178</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D20" t="n">
         <v>500</v>
@@ -1319,13 +1319,13 @@
         <v>25903</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>29830</v>
+        <v>30042</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="D21" t="n">
         <v>500</v>
@@ -1364,13 +1364,13 @@
         <v>35796</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>29830</v>
+        <v>30042</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1400,22 +1400,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="D22" t="n">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>35400</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>34121</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1448,19 +1448,19 @@
         <v>500</v>
       </c>
       <c r="D23" t="n">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>29677</v>
+        <v>29952</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>44866</v>
+        <v>45139</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1490,22 +1490,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="D24" t="n">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>35096</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         <v>500</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>29768</v>
+        <v>29983</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>29830</v>
+        <v>30042</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1583,19 +1583,19 @@
         <v>500</v>
       </c>
       <c r="D26" t="n">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>29768</v>
+        <v>29983</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>33725</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1628,19 +1628,19 @@
         <v>500</v>
       </c>
       <c r="D27" t="n">
-        <v>500</v>
+        <v>216</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>29768</v>
+        <v>29983</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>29830</v>
+        <v>35339</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="D28" t="n">
         <v>500</v>
@@ -1679,13 +1679,13 @@
         <v>33239</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>29830</v>
+        <v>30042</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1721,16 +1721,16 @@
         <v>500</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>29768</v>
+        <v>29983</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>29830</v>
+        <v>30042</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1760,22 +1760,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="D30" t="n">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>31413</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>44958</v>
+        <v>45200</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>33178</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1805,22 +1805,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="D31" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>32874</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>44927</v>
+        <v>45139</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1850,22 +1850,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="D32" t="n">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>29952</v>
+        <v>30011</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>44958</v>
+        <v>45200</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1895,22 +1895,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="D33" t="n">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>31048</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1940,22 +1940,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="D34" t="n">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>34304</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>44958</v>
+        <v>45170</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>34121</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45019</v>
+        <v>45231</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>

--- a/Global_M2/Datasums/Top33_DataComp.xlsx
+++ b/Global_M2/Datasums/Top33_DataComp.xlsx
@@ -772,10 +772,10 @@
         <v>45200</v>
       </c>
       <c r="G2" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H2" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I2" t="s">
         <v>77</v>
@@ -798,10 +798,10 @@
         <v>500</v>
       </c>
       <c r="E3" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F3" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="I3" t="s">
         <v>78</v>
@@ -827,16 +827,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F4" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G4" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H4" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I4" t="s">
         <v>79</v>
@@ -868,10 +868,10 @@
         <v>45200</v>
       </c>
       <c r="G5" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H5" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I5" t="s">
         <v>79</v>
@@ -891,7 +891,7 @@
         <v>48</v>
       </c>
       <c r="C6">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D6">
         <v>500</v>
@@ -900,13 +900,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G6" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H6" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I6" t="s">
         <v>77</v>
@@ -938,10 +938,10 @@
         <v>45139</v>
       </c>
       <c r="G7" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H7" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -964,19 +964,19 @@
         <v>500</v>
       </c>
       <c r="D8">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E8" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F8" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G8" s="2">
         <v>32813</v>
       </c>
       <c r="H8" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I8" t="s">
         <v>79</v>
@@ -1002,16 +1002,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F9" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G9" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H9" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I9" t="s">
         <v>79</v>
@@ -1034,19 +1034,19 @@
         <v>500</v>
       </c>
       <c r="D10">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E10" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F10" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G10" s="2">
         <v>30592</v>
       </c>
       <c r="H10" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I10" t="s">
         <v>79</v>
@@ -1078,10 +1078,10 @@
         <v>45170</v>
       </c>
       <c r="G11" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H11" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I11" t="s">
         <v>79</v>
@@ -1101,22 +1101,22 @@
         <v>54</v>
       </c>
       <c r="C12">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D12">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E12" s="2">
         <v>33939</v>
       </c>
       <c r="F12" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G12" s="2">
         <v>34578</v>
       </c>
       <c r="H12" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I12" t="s">
         <v>79</v>
@@ -1136,7 +1136,7 @@
         <v>55</v>
       </c>
       <c r="C13">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -1145,13 +1145,13 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G13" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H13" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I13" t="s">
         <v>77</v>
@@ -1174,7 +1174,7 @@
         <v>423</v>
       </c>
       <c r="D14">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E14" s="2">
         <v>32325</v>
@@ -1186,7 +1186,7 @@
         <v>33239</v>
       </c>
       <c r="H14" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I14" t="s">
         <v>79</v>
@@ -1218,10 +1218,10 @@
         <v>45170</v>
       </c>
       <c r="G15" s="2">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="H15" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I15" t="s">
         <v>77</v>
@@ -1241,22 +1241,22 @@
         <v>58</v>
       </c>
       <c r="C16">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D16">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E16" s="2">
         <v>31382</v>
       </c>
       <c r="F16" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G16" s="2">
         <v>32813</v>
       </c>
       <c r="H16" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I16" t="s">
         <v>79</v>
@@ -1276,22 +1276,22 @@
         <v>59</v>
       </c>
       <c r="C17">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D17">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E17" s="2">
         <v>33970</v>
       </c>
       <c r="F17" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G17" s="2">
         <v>33298</v>
       </c>
       <c r="H17" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I17" t="s">
         <v>77</v>
@@ -1317,16 +1317,16 @@
         <v>500</v>
       </c>
       <c r="E18" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F18" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G18" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H18" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I18" t="s">
         <v>79</v>
@@ -1349,19 +1349,19 @@
         <v>500</v>
       </c>
       <c r="D19">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E19" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F19" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G19" s="2">
         <v>33178</v>
       </c>
       <c r="H19" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I19" t="s">
         <v>79</v>
@@ -1381,7 +1381,7 @@
         <v>62</v>
       </c>
       <c r="C20">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D20">
         <v>500</v>
@@ -1390,13 +1390,13 @@
         <v>25903</v>
       </c>
       <c r="F20" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G20" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H20" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I20" t="s">
         <v>79</v>
@@ -1416,7 +1416,7 @@
         <v>63</v>
       </c>
       <c r="C21">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D21">
         <v>500</v>
@@ -1425,13 +1425,13 @@
         <v>35796</v>
       </c>
       <c r="F21" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G21" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H21" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I21" t="s">
         <v>77</v>
@@ -1451,22 +1451,22 @@
         <v>64</v>
       </c>
       <c r="C22">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="D22">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E22" s="2">
         <v>35400</v>
       </c>
       <c r="F22" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G22" s="2">
         <v>34121</v>
       </c>
       <c r="H22" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I22" t="s">
         <v>77</v>
@@ -1489,7 +1489,7 @@
         <v>500</v>
       </c>
       <c r="D23">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E23" s="2">
         <v>29952</v>
@@ -1501,7 +1501,7 @@
         <v>35643</v>
       </c>
       <c r="H23" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I23" t="s">
         <v>79</v>
@@ -1521,22 +1521,22 @@
         <v>66</v>
       </c>
       <c r="C24">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D24">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E24" s="2">
         <v>35096</v>
       </c>
       <c r="F24" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G24" s="2">
         <v>35643</v>
       </c>
       <c r="H24" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I24" t="s">
         <v>79</v>
@@ -1562,16 +1562,16 @@
         <v>500</v>
       </c>
       <c r="E25" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F25" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G25" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H25" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I25" t="s">
         <v>79</v>
@@ -1594,7 +1594,7 @@
         <v>500</v>
       </c>
       <c r="D26">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E26" s="2">
         <v>29983</v>
@@ -1606,7 +1606,7 @@
         <v>33725</v>
       </c>
       <c r="H26" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I26" t="s">
         <v>79</v>
@@ -1629,19 +1629,19 @@
         <v>500</v>
       </c>
       <c r="D27">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E27" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F27" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G27" s="2">
         <v>35339</v>
       </c>
       <c r="H27" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I27" t="s">
         <v>79</v>
@@ -1661,7 +1661,7 @@
         <v>70</v>
       </c>
       <c r="C28">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D28">
         <v>500</v>
@@ -1670,13 +1670,13 @@
         <v>33239</v>
       </c>
       <c r="F28" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G28" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H28" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I28" t="s">
         <v>77</v>
@@ -1702,16 +1702,16 @@
         <v>500</v>
       </c>
       <c r="E29" s="2">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="F29" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G29" s="2">
-        <v>30042</v>
+        <v>30074</v>
       </c>
       <c r="H29" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I29" t="s">
         <v>79</v>
@@ -1734,7 +1734,7 @@
         <v>454</v>
       </c>
       <c r="D30">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="E30" s="2">
         <v>31413</v>
@@ -1746,7 +1746,7 @@
         <v>33178</v>
       </c>
       <c r="H30" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I30" t="s">
         <v>79</v>
@@ -1766,22 +1766,22 @@
         <v>73</v>
       </c>
       <c r="C31">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D31">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E31" s="2">
         <v>32874</v>
       </c>
       <c r="F31" s="2">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="G31" s="2">
         <v>35643</v>
       </c>
       <c r="H31" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I31" t="s">
         <v>79</v>
@@ -1804,7 +1804,7 @@
         <v>500</v>
       </c>
       <c r="D32">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E32" s="2">
         <v>30011</v>
@@ -1816,7 +1816,7 @@
         <v>32813</v>
       </c>
       <c r="H32" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I32" t="s">
         <v>79</v>
@@ -1836,22 +1836,22 @@
         <v>75</v>
       </c>
       <c r="C33">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D33">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E33" s="2">
         <v>31048</v>
       </c>
       <c r="F33" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G33" s="2">
         <v>35643</v>
       </c>
       <c r="H33" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I33" t="s">
         <v>79</v>
@@ -1871,22 +1871,22 @@
         <v>76</v>
       </c>
       <c r="C34">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D34">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E34" s="2">
         <v>34304</v>
       </c>
       <c r="F34" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="G34" s="2">
         <v>34121</v>
       </c>
       <c r="H34" s="2">
-        <v>45231</v>
+        <v>45261</v>
       </c>
       <c r="I34" t="s">
         <v>77</v>

--- a/Global_M2/Datasums/Top33_DataComp.xlsx
+++ b/Global_M2/Datasums/Top33_DataComp.xlsx
@@ -760,7 +760,7 @@
         <v>44</v>
       </c>
       <c r="C2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D2">
         <v>500</v>
@@ -769,13 +769,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="G2" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H2" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I2" t="s">
         <v>77</v>
@@ -798,10 +798,10 @@
         <v>500</v>
       </c>
       <c r="E3" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F3" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="I3" t="s">
         <v>78</v>
@@ -827,16 +827,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F4" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G4" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H4" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I4" t="s">
         <v>79</v>
@@ -862,16 +862,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F5" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G5" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H5" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I5" t="s">
         <v>79</v>
@@ -891,7 +891,7 @@
         <v>48</v>
       </c>
       <c r="C6">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D6">
         <v>500</v>
@@ -900,13 +900,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="G6" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H6" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I6" t="s">
         <v>77</v>
@@ -932,16 +932,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2">
-        <v>29952</v>
+        <v>30011</v>
       </c>
       <c r="F7" s="2">
-        <v>45139</v>
+        <v>45292</v>
       </c>
       <c r="G7" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H7" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I7" t="s">
         <v>79</v>
@@ -964,19 +964,19 @@
         <v>500</v>
       </c>
       <c r="D8">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E8" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F8" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G8" s="2">
         <v>32813</v>
       </c>
       <c r="H8" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I8" t="s">
         <v>79</v>
@@ -1002,16 +1002,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="F9" s="2">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="G9" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H9" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I9" t="s">
         <v>79</v>
@@ -1034,19 +1034,19 @@
         <v>500</v>
       </c>
       <c r="D10">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E10" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F10" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G10" s="2">
         <v>30592</v>
       </c>
       <c r="H10" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I10" t="s">
         <v>79</v>
@@ -1072,16 +1072,16 @@
         <v>500</v>
       </c>
       <c r="E11" s="2">
-        <v>30042</v>
+        <v>30103</v>
       </c>
       <c r="F11" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="G11" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H11" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I11" t="s">
         <v>79</v>
@@ -1101,22 +1101,22 @@
         <v>54</v>
       </c>
       <c r="C12">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D12">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E12" s="2">
         <v>33939</v>
       </c>
       <c r="F12" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G12" s="2">
         <v>34578</v>
       </c>
       <c r="H12" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I12" t="s">
         <v>79</v>
@@ -1136,7 +1136,7 @@
         <v>55</v>
       </c>
       <c r="C13">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D13">
         <v>500</v>
@@ -1145,13 +1145,13 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G13" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H13" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I13" t="s">
         <v>77</v>
@@ -1171,22 +1171,22 @@
         <v>56</v>
       </c>
       <c r="C14">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D14">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E14" s="2">
         <v>32325</v>
       </c>
       <c r="F14" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="G14" s="2">
         <v>33239</v>
       </c>
       <c r="H14" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I14" t="s">
         <v>79</v>
@@ -1206,7 +1206,7 @@
         <v>57</v>
       </c>
       <c r="C15">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D15">
         <v>500</v>
@@ -1215,13 +1215,13 @@
         <v>33543</v>
       </c>
       <c r="F15" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G15" s="2">
-        <v>30103</v>
+        <v>30165</v>
       </c>
       <c r="H15" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I15" t="s">
         <v>77</v>
@@ -1241,22 +1241,22 @@
         <v>58</v>
       </c>
       <c r="C16">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D16">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E16" s="2">
         <v>31382</v>
       </c>
       <c r="F16" s="2">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="G16" s="2">
         <v>32813</v>
       </c>
       <c r="H16" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I16" t="s">
         <v>79</v>
@@ -1276,22 +1276,22 @@
         <v>59</v>
       </c>
       <c r="C17">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D17">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E17" s="2">
         <v>33970</v>
       </c>
       <c r="F17" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G17" s="2">
         <v>33298</v>
       </c>
       <c r="H17" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I17" t="s">
         <v>77</v>
@@ -1317,16 +1317,16 @@
         <v>500</v>
       </c>
       <c r="E18" s="2">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="F18" s="2">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="G18" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H18" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I18" t="s">
         <v>79</v>
@@ -1349,19 +1349,19 @@
         <v>500</v>
       </c>
       <c r="D19">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E19" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F19" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G19" s="2">
         <v>33178</v>
       </c>
       <c r="H19" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I19" t="s">
         <v>79</v>
@@ -1381,7 +1381,7 @@
         <v>62</v>
       </c>
       <c r="C20">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D20">
         <v>500</v>
@@ -1390,13 +1390,13 @@
         <v>25903</v>
       </c>
       <c r="F20" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G20" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H20" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I20" t="s">
         <v>79</v>
@@ -1416,7 +1416,7 @@
         <v>63</v>
       </c>
       <c r="C21">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D21">
         <v>500</v>
@@ -1425,13 +1425,13 @@
         <v>35796</v>
       </c>
       <c r="F21" s="2">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="G21" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H21" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I21" t="s">
         <v>77</v>
@@ -1451,22 +1451,22 @@
         <v>64</v>
       </c>
       <c r="C22">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="D22">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E22" s="2">
         <v>35400</v>
       </c>
       <c r="F22" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G22" s="2">
         <v>34121</v>
       </c>
       <c r="H22" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I22" t="s">
         <v>77</v>
@@ -1489,19 +1489,19 @@
         <v>500</v>
       </c>
       <c r="D23">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="E23" s="2">
-        <v>30011</v>
+        <v>30072</v>
       </c>
       <c r="F23" s="2">
-        <v>45200</v>
+        <v>45261</v>
       </c>
       <c r="G23" s="2">
         <v>35643</v>
       </c>
       <c r="H23" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I23" t="s">
         <v>79</v>
@@ -1521,22 +1521,22 @@
         <v>66</v>
       </c>
       <c r="C24">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D24">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E24" s="2">
         <v>35096</v>
       </c>
       <c r="F24" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G24" s="2">
         <v>35643</v>
       </c>
       <c r="H24" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I24" t="s">
         <v>79</v>
@@ -1562,16 +1562,16 @@
         <v>500</v>
       </c>
       <c r="E25" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F25" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G25" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H25" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I25" t="s">
         <v>79</v>
@@ -1594,19 +1594,19 @@
         <v>500</v>
       </c>
       <c r="D26">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E26" s="2">
-        <v>30042</v>
+        <v>30103</v>
       </c>
       <c r="F26" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="G26" s="2">
         <v>33725</v>
       </c>
       <c r="H26" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I26" t="s">
         <v>79</v>
@@ -1629,19 +1629,19 @@
         <v>500</v>
       </c>
       <c r="D27">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E27" s="2">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="F27" s="2">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="G27" s="2">
         <v>35339</v>
       </c>
       <c r="H27" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I27" t="s">
         <v>79</v>
@@ -1661,7 +1661,7 @@
         <v>70</v>
       </c>
       <c r="C28">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D28">
         <v>500</v>
@@ -1670,13 +1670,13 @@
         <v>33239</v>
       </c>
       <c r="F28" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G28" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H28" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I28" t="s">
         <v>77</v>
@@ -1702,16 +1702,16 @@
         <v>500</v>
       </c>
       <c r="E29" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F29" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G29" s="2">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="H29" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I29" t="s">
         <v>79</v>
@@ -1731,22 +1731,22 @@
         <v>72</v>
       </c>
       <c r="C30">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D30">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E30" s="2">
         <v>31413</v>
       </c>
       <c r="F30" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G30" s="2">
         <v>33178</v>
       </c>
       <c r="H30" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I30" t="s">
         <v>79</v>
@@ -1766,22 +1766,22 @@
         <v>73</v>
       </c>
       <c r="C31">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D31">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E31" s="2">
         <v>32874</v>
       </c>
       <c r="F31" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="G31" s="2">
         <v>35643</v>
       </c>
       <c r="H31" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I31" t="s">
         <v>79</v>
@@ -1804,19 +1804,19 @@
         <v>500</v>
       </c>
       <c r="D32">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E32" s="2">
-        <v>30072</v>
+        <v>30133</v>
       </c>
       <c r="F32" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G32" s="2">
         <v>32813</v>
       </c>
       <c r="H32" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I32" t="s">
         <v>79</v>
@@ -1836,22 +1836,22 @@
         <v>75</v>
       </c>
       <c r="C33">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D33">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E33" s="2">
         <v>31048</v>
       </c>
       <c r="F33" s="2">
-        <v>45261</v>
+        <v>45323</v>
       </c>
       <c r="G33" s="2">
         <v>35643</v>
       </c>
       <c r="H33" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I33" t="s">
         <v>79</v>
@@ -1871,22 +1871,22 @@
         <v>76</v>
       </c>
       <c r="C34">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D34">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E34" s="2">
         <v>34304</v>
       </c>
       <c r="F34" s="2">
-        <v>45231</v>
+        <v>45292</v>
       </c>
       <c r="G34" s="2">
         <v>34121</v>
       </c>
       <c r="H34" s="2">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="I34" t="s">
         <v>77</v>

--- a/Global_M2/Datasums/Top33_DataComp.xlsx
+++ b/Global_M2/Datasums/Top33_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,7 +515,7 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30195</v>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,10 +596,10 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30195</v>
@@ -731,10 +731,10 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30195</v>
@@ -866,10 +866,10 @@
         <v>487</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30592</v>
@@ -1271,10 +1271,10 @@
         <v>402</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>33178</v>
@@ -1400,7 +1400,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D22" t="n">
         <v>371</v>
@@ -1409,7 +1409,7 @@
         <v>35400</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>34121</v>
@@ -1451,10 +1451,10 @@
         <v>319</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45261</v>
+        <v>45292</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>35643</v>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D31" t="n">
         <v>321</v>
@@ -1814,7 +1814,7 @@
         <v>32874</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>35643</v>
@@ -1940,7 +1940,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D34" t="n">
         <v>371</v>
@@ -1949,7 +1949,7 @@
         <v>34304</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>34121</v>

--- a/Global_M2/Datasums/Top33_DataComp.xlsx
+++ b/Global_M2/Datasums/Top33_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -602,10 +602,10 @@
         <v>45352</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -692,10 +692,10 @@
         <v>45323</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30042</v>
+        <v>30164</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -863,19 +863,19 @@
         <v>500</v>
       </c>
       <c r="D10" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30592</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -911,16 +911,16 @@
         <v>500</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>30103</v>
+        <v>30164</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -950,22 +950,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D12" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>33939</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>34578</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D13" t="n">
         <v>500</v>
@@ -1004,13 +1004,13 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>428</v>
       </c>
       <c r="D14" t="n">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>32325</v>
@@ -1055,7 +1055,7 @@
         <v>33239</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>45352</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30165</v>
+        <v>30195</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>459</v>
       </c>
       <c r="D16" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>31382</v>
@@ -1145,7 +1145,7 @@
         <v>32813</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D17" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>33970</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>33298</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1226,16 +1226,16 @@
         <v>500</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1268,19 +1268,19 @@
         <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>33178</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D20" t="n">
         <v>500</v>
@@ -1319,13 +1319,13 @@
         <v>25903</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>45323</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>328</v>
       </c>
       <c r="D22" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>35400</v>
@@ -1415,7 +1415,7 @@
         <v>34121</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1448,19 +1448,19 @@
         <v>500</v>
       </c>
       <c r="D23" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1490,22 +1490,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D24" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>35096</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         <v>500</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1583,19 +1583,19 @@
         <v>500</v>
       </c>
       <c r="D26" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>30103</v>
+        <v>30164</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45292</v>
+        <v>45352</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>33725</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1628,19 +1628,19 @@
         <v>500</v>
       </c>
       <c r="D27" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>35339</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D28" t="n">
         <v>500</v>
@@ -1679,13 +1679,13 @@
         <v>33239</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1721,16 +1721,16 @@
         <v>500</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1760,22 +1760,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D30" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>31413</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>33178</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1805,22 +1805,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D31" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>32874</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1853,19 +1853,19 @@
         <v>500</v>
       </c>
       <c r="D32" t="n">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>30133</v>
+        <v>30195</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1895,22 +1895,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D33" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>31048</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1940,22 +1940,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="D34" t="n">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>34304</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>34121</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>

--- a/Global_M2/Datasums/Top33_DataComp.xlsx
+++ b/Global_M2/Datasums/Top33_DataComp.xlsx
@@ -518,10 +518,10 @@
         <v>45383</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -602,10 +602,10 @@
         <v>45352</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
         <v>45383</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -692,10 +692,10 @@
         <v>45323</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -737,10 +737,10 @@
         <v>45352</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>30164</v>
@@ -785,7 +785,7 @@
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -827,10 +827,10 @@
         <v>45352</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -863,7 +863,7 @@
         <v>500</v>
       </c>
       <c r="D10" t="n">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>30195</v>
@@ -875,7 +875,7 @@
         <v>30592</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -917,10 +917,10 @@
         <v>45352</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -953,7 +953,7 @@
         <v>377</v>
       </c>
       <c r="D12" t="n">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>33939</v>
@@ -965,7 +965,7 @@
         <v>34578</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -1007,10 +1007,10 @@
         <v>45352</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>428</v>
       </c>
       <c r="D14" t="n">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>32325</v>
@@ -1055,7 +1055,7 @@
         <v>33239</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>45352</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>459</v>
       </c>
       <c r="D16" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>31382</v>
@@ -1145,7 +1145,7 @@
         <v>32813</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1178,7 +1178,7 @@
         <v>376</v>
       </c>
       <c r="D17" t="n">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>33970</v>
@@ -1190,7 +1190,7 @@
         <v>33298</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1232,10 +1232,10 @@
         <v>45383</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
         <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E19" s="2" t="n">
         <v>30195</v>
@@ -1280,7 +1280,7 @@
         <v>33178</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1322,10 +1322,10 @@
         <v>45383</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1367,10 +1367,10 @@
         <v>45323</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1403,7 +1403,7 @@
         <v>328</v>
       </c>
       <c r="D22" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>35400</v>
@@ -1415,7 +1415,7 @@
         <v>34121</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>500</v>
       </c>
       <c r="D23" t="n">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>30133</v>
@@ -1460,7 +1460,7 @@
         <v>35643</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1493,7 +1493,7 @@
         <v>339</v>
       </c>
       <c r="D24" t="n">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>35096</v>
@@ -1505,7 +1505,7 @@
         <v>35643</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1547,10 +1547,10 @@
         <v>45352</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>500</v>
       </c>
       <c r="D26" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>30164</v>
@@ -1595,7 +1595,7 @@
         <v>33725</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1628,7 +1628,7 @@
         <v>500</v>
       </c>
       <c r="D27" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>30164</v>
@@ -1640,7 +1640,7 @@
         <v>35339</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1682,10 +1682,10 @@
         <v>45352</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1727,10 +1727,10 @@
         <v>45383</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>460</v>
       </c>
       <c r="D30" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>31413</v>
@@ -1775,7 +1775,7 @@
         <v>33178</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>410</v>
       </c>
       <c r="D31" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>32874</v>
@@ -1820,7 +1820,7 @@
         <v>35643</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>500</v>
       </c>
       <c r="D32" t="n">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>30195</v>
@@ -1865,7 +1865,7 @@
         <v>32813</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1895,22 +1895,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D33" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>31048</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1943,7 +1943,7 @@
         <v>365</v>
       </c>
       <c r="D34" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>34304</v>
@@ -1955,7 +1955,7 @@
         <v>34121</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45413</v>
+        <v>45446</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>

--- a/Global_M2/Datasums/Top33_DataComp.xlsx
+++ b/Global_M2/Datasums/Top33_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,7 +515,7 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G2" s="2" t="n">
         <v>30256</v>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,10 +596,10 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30164</v>
+        <v>30225</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>30256</v>
@@ -641,10 +641,10 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>30256</v>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,7 +689,7 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>30256</v>
@@ -731,10 +731,10 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>30256</v>
@@ -776,10 +776,10 @@
         <v>416</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
@@ -821,10 +821,10 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30164</v>
+        <v>30225</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>30256</v>
@@ -866,10 +866,10 @@
         <v>489</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30592</v>
@@ -911,10 +911,10 @@
         <v>500</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G11" s="2" t="n">
         <v>30256</v>
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D12" t="n">
         <v>358</v>
@@ -959,7 +959,7 @@
         <v>33939</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>34578</v>
@@ -1040,7 +1040,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D14" t="n">
         <v>402</v>
@@ -1049,7 +1049,7 @@
         <v>32325</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="G14" s="2" t="n">
         <v>33239</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D16" t="n">
         <v>416</v>
@@ -1139,7 +1139,7 @@
         <v>31382</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>32813</v>
@@ -1223,7 +1223,7 @@
         <v>500</v>
       </c>
       <c r="D18" t="n">
-        <v>500</v>
+        <v>266</v>
       </c>
       <c r="E18" s="2" t="n">
         <v>30195</v>
@@ -1232,7 +1232,7 @@
         <v>45383</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>30256</v>
+        <v>37377</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>45446</v>
@@ -1271,10 +1271,10 @@
         <v>404</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>33178</v>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D21" t="n">
         <v>500</v>
@@ -1364,7 +1364,7 @@
         <v>35796</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45323</v>
+        <v>45383</v>
       </c>
       <c r="G21" s="2" t="n">
         <v>30256</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D24" t="n">
         <v>319</v>
@@ -1499,7 +1499,7 @@
         <v>35096</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>35643</v>
@@ -1586,10 +1586,10 @@
         <v>386</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>33725</v>
@@ -1631,10 +1631,10 @@
         <v>223</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>35339</v>
@@ -1721,10 +1721,10 @@
         <v>500</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G29" s="2" t="n">
         <v>30256</v>
@@ -1805,7 +1805,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D31" t="n">
         <v>323</v>
@@ -1814,7 +1814,7 @@
         <v>32874</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>35643</v>
@@ -1856,10 +1856,10 @@
         <v>416</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>32813</v>

--- a/Global_M2/Datasums/Top33_DataComp.xlsx
+++ b/Global_M2/Datasums/Top33_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30195</v>
+        <v>30256</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>30195</v>
+        <v>30256</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -863,19 +863,19 @@
         <v>500</v>
       </c>
       <c r="D10" t="n">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>30592</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -911,16 +911,16 @@
         <v>500</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -950,22 +950,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D12" t="n">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>33939</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>34578</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D13" t="n">
         <v>500</v>
@@ -1004,13 +1004,13 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>430</v>
       </c>
       <c r="D14" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>32325</v>
@@ -1055,7 +1055,7 @@
         <v>33239</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>45352</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30225</v>
+        <v>30286</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D16" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>31382</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G16" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D17" t="n">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>33970</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G17" s="2" t="n">
         <v>33298</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1223,19 +1223,19 @@
         <v>500</v>
       </c>
       <c r="D18" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>30195</v>
+        <v>30256</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G18" s="2" t="n">
         <v>37377</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1268,19 +1268,19 @@
         <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G19" s="2" t="n">
         <v>33178</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D20" t="n">
         <v>500</v>
@@ -1319,13 +1319,13 @@
         <v>25903</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D21" t="n">
         <v>500</v>
@@ -1364,13 +1364,13 @@
         <v>35796</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1400,22 +1400,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D22" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>35400</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>34121</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1448,19 +1448,19 @@
         <v>500</v>
       </c>
       <c r="D23" t="n">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>30133</v>
+        <v>30225</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45323</v>
+        <v>45413</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1490,22 +1490,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D24" t="n">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>35096</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         <v>500</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>30164</v>
+        <v>30225</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45352</v>
+        <v>45413</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1583,19 +1583,19 @@
         <v>500</v>
       </c>
       <c r="D26" t="n">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>30195</v>
+        <v>30256</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>33725</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1628,19 +1628,19 @@
         <v>500</v>
       </c>
       <c r="D27" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>35339</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D28" t="n">
         <v>500</v>
@@ -1679,13 +1679,13 @@
         <v>33239</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1727,10 +1727,10 @@
         <v>45413</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>30256</v>
+        <v>30319</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1760,22 +1760,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D30" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>31413</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G30" s="2" t="n">
         <v>33178</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1805,22 +1805,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D31" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>32874</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1853,19 +1853,19 @@
         <v>500</v>
       </c>
       <c r="D32" t="n">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G32" s="2" t="n">
         <v>32813</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1895,22 +1895,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="D33" t="n">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>31048</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1940,22 +1940,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D34" t="n">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>34304</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45383</v>
+        <v>45444</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>34121</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45446</v>
+        <v>45505</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>

--- a/Global_M2/Datasums/Top33_DataComp.xlsx
+++ b/Global_M2/Datasums/Top33_DataComp.xlsx
@@ -518,10 +518,10 @@
         <v>45444</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -641,16 +641,16 @@
         <v>500</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>30256</v>
+        <v>30317</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -737,10 +737,10 @@
         <v>45444</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,19 +773,19 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>32813</v>
+        <v>32812</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -863,19 +863,19 @@
         <v>500</v>
       </c>
       <c r="D10" t="n">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30592</v>
+        <v>30591</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -917,10 +917,10 @@
         <v>45413</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -950,22 +950,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D12" t="n">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>33939</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>34578</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D13" t="n">
         <v>500</v>
@@ -1004,13 +1004,13 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
         <v>430</v>
       </c>
       <c r="D14" t="n">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>32325</v>
@@ -1052,10 +1052,10 @@
         <v>45413</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>33239</v>
+        <v>33238</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="D15" t="n">
         <v>500</v>
@@ -1094,13 +1094,13 @@
         <v>33543</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45352</v>
+        <v>45444</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30286</v>
+        <v>30318</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1133,7 +1133,7 @@
         <v>462</v>
       </c>
       <c r="D16" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>31382</v>
@@ -1142,10 +1142,10 @@
         <v>45413</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>32813</v>
+        <v>32812</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D17" t="n">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>33970</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>33298</v>
+        <v>33297</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1223,19 +1223,19 @@
         <v>500</v>
       </c>
       <c r="D18" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>37377</v>
+        <v>37376</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1268,19 +1268,19 @@
         <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>33178</v>
+        <v>33177</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D20" t="n">
         <v>500</v>
@@ -1319,13 +1319,13 @@
         <v>25903</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D21" t="n">
         <v>500</v>
@@ -1364,13 +1364,13 @@
         <v>35796</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1400,22 +1400,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D22" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>35400</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>34121</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1448,7 +1448,7 @@
         <v>500</v>
       </c>
       <c r="D23" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>30225</v>
@@ -1460,7 +1460,7 @@
         <v>35643</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1490,22 +1490,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D24" t="n">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>35096</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         <v>500</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>30225</v>
+        <v>30286</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1583,19 +1583,19 @@
         <v>500</v>
       </c>
       <c r="D26" t="n">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>33725</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1628,19 +1628,19 @@
         <v>500</v>
       </c>
       <c r="D27" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>35339</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1682,10 +1682,10 @@
         <v>45444</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1721,16 +1721,16 @@
         <v>500</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>30225</v>
+        <v>30286</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>30319</v>
+        <v>30347</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         <v>462</v>
       </c>
       <c r="D30" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>31413</v>
@@ -1772,10 +1772,10 @@
         <v>45444</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>33178</v>
+        <v>33177</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1805,22 +1805,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D31" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>32874</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1853,7 +1853,7 @@
         <v>500</v>
       </c>
       <c r="D32" t="n">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>30256</v>
@@ -1862,10 +1862,10 @@
         <v>45444</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>32813</v>
+        <v>32812</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1895,22 +1895,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D33" t="n">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>31048</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1940,22 +1940,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D34" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>34304</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>34121</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45505</v>
+        <v>45537</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>

--- a/Global_M2/Datasums/Top33_DataComp.xlsx
+++ b/Global_M2/Datasums/Top33_DataComp.xlsx
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D2" t="n">
         <v>500</v>
@@ -515,13 +515,13 @@
         <v>35065</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -555,10 +555,10 @@
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -596,16 +596,16 @@
         <v>500</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -647,10 +647,10 @@
         <v>45505</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -680,7 +680,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
@@ -689,13 +689,13 @@
         <v>31747</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -731,16 +731,16 @@
         <v>500</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -773,7 +773,7 @@
         <v>500</v>
       </c>
       <c r="D8" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>30286</v>
@@ -782,10 +782,10 @@
         <v>45474</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>32812</v>
+        <v>32813</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -821,16 +821,16 @@
         <v>500</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -863,19 +863,19 @@
         <v>500</v>
       </c>
       <c r="D10" t="n">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>30591</v>
+        <v>30592</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -911,16 +911,16 @@
         <v>500</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -950,22 +950,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D12" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>33939</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G12" s="2" t="n">
         <v>34578</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -995,7 +995,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D13" t="n">
         <v>500</v>
@@ -1004,13 +1004,13 @@
         <v>31017</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="D14" t="n">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E14" s="2" t="n">
         <v>32325</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>33238</v>
+        <v>33239</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -1097,10 +1097,10 @@
         <v>45444</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>30318</v>
+        <v>30348</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D16" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E16" s="2" t="n">
         <v>31382</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>32812</v>
+        <v>32813</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -1175,22 +1175,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D17" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E17" s="2" t="n">
         <v>33970</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>33297</v>
+        <v>33298</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -1223,19 +1223,19 @@
         <v>500</v>
       </c>
       <c r="D18" t="n">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>37376</v>
+        <v>37377</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -1268,19 +1268,19 @@
         <v>500</v>
       </c>
       <c r="D19" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>33177</v>
+        <v>33178</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -1310,7 +1310,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D20" t="n">
         <v>500</v>
@@ -1319,13 +1319,13 @@
         <v>25903</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -1355,7 +1355,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D21" t="n">
         <v>500</v>
@@ -1364,13 +1364,13 @@
         <v>35796</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
@@ -1400,22 +1400,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D22" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E22" s="2" t="n">
         <v>35400</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G22" s="2" t="n">
         <v>34121</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
@@ -1448,19 +1448,19 @@
         <v>500</v>
       </c>
       <c r="D23" t="n">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>30225</v>
+        <v>30286</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>45413</v>
+        <v>45474</v>
       </c>
       <c r="G23" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
@@ -1490,22 +1490,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D24" t="n">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E24" s="2" t="n">
         <v>35096</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G24" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
@@ -1541,16 +1541,16 @@
         <v>500</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
@@ -1583,7 +1583,7 @@
         <v>500</v>
       </c>
       <c r="D26" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>30286</v>
@@ -1595,7 +1595,7 @@
         <v>33725</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
@@ -1628,19 +1628,19 @@
         <v>500</v>
       </c>
       <c r="D27" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>30256</v>
+        <v>30317</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="G27" s="2" t="n">
         <v>35339</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="D28" t="n">
         <v>500</v>
@@ -1679,13 +1679,13 @@
         <v>33239</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
@@ -1721,16 +1721,16 @@
         <v>500</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>30347</v>
+        <v>30376</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
@@ -1760,22 +1760,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D30" t="n">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>31413</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>33177</v>
+        <v>33178</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
@@ -1805,22 +1805,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D31" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E31" s="2" t="n">
         <v>32874</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G31" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
@@ -1853,19 +1853,19 @@
         <v>500</v>
       </c>
       <c r="D32" t="n">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>30256</v>
+        <v>30317</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>45444</v>
+        <v>45505</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>32812</v>
+        <v>32813</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
@@ -1895,22 +1895,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D33" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E33" s="2" t="n">
         <v>31048</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G33" s="2" t="n">
         <v>35643</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
@@ -1940,22 +1940,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D34" t="n">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E34" s="2" t="n">
         <v>34304</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G34" s="2" t="n">
         <v>34121</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>45537</v>
+        <v>45566</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>

--- a/Global_M2/Datasums/Top33_DataComp.xlsx
+++ b/Global_M2/Datasums/Top33_DataComp.xlsx
@@ -1085,7 +1085,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D15" t="n">
         <v>500</v>
@@ -1094,7 +1094,7 @@
         <v>33543</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="G15" s="2" t="n">
         <v>30348</v>
@@ -1586,10 +1586,10 @@
         <v>390</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="G26" s="2" t="n">
         <v>33725</v>
